--- a/photoshoot data template.xlsx
+++ b/photoshoot data template.xlsx
@@ -8,27 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/640dce341da437cb/02 Time v3 physical Clock/Time v3 Clock camera and image processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_F25DC773A252ABDACC1048E4C9D971325BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96EEE054-E0FD-46ED-8229-3E4565971B3A}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_F25DC773A252ABDACC1048E4C9D971325BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4325F8D6-6D1A-487E-A0C1-00DE45BD9B8E}"/>
   <bookViews>
-    <workbookView xWindow="5052" yWindow="3744" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5748" yWindow="3744" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>lat,lon</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>40.229,-83.2092</t>
   </si>
@@ -36,7 +43,31 @@
     <t>elevation</t>
   </si>
   <si>
-    <t>1715,578</t>
+    <t>latlng</t>
+  </si>
+  <si>
+    <t>-5:00</t>
+  </si>
+  <si>
+    <t>time offset from UTC</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>40.2986,-83.0558</t>
+  </si>
+  <si>
+    <t>798,891</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>828,273</t>
   </si>
 </sst>
 </file>
@@ -355,36 +386,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/photoshoot data template.xlsx
+++ b/photoshoot data template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/640dce341da437cb/02 Time v3 physical Clock/Time v3 Clock camera and image processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_F25DC773A252ABDACC1048E4C9D971325BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4325F8D6-6D1A-487E-A0C1-00DE45BD9B8E}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_F25DC773A252ABDACC1048E4C9D971325BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F0EA179-43BA-4E3A-A33F-DE6C0DA7FA31}"/>
   <bookViews>
-    <workbookView xWindow="5748" yWindow="3744" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>40.229,-83.2092</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>828,273</t>
+  </si>
+  <si>
+    <t>UTC moment</t>
+  </si>
+  <si>
+    <t>2022-02-24T17:04:55</t>
   </si>
 </sst>
 </file>
@@ -386,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,45 +422,53 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
